--- a/Booklist.xlsx
+++ b/Booklist.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23902"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23916"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D899F89D-47CC-40D1-85CF-C87A3EEF340E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7C5D4E3-CC14-4DA8-93C6-A202DB0A5F8A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="90">
   <si>
     <t>id</t>
   </si>
@@ -184,13 +184,16 @@
     <t>Quotation</t>
   </si>
   <si>
+    <t>The Fantastic Beasts Series</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
     <t>Sapiens</t>
   </si>
   <si>
     <t>Yuval Noah Harari</t>
-  </si>
-  <si>
-    <t>F</t>
   </si>
   <si>
     <t>21 Lessons for the 21 first century</t>
@@ -656,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1139,16 +1142,16 @@
         <v>52</v>
       </c>
       <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" t="s">
         <v>53</v>
-      </c>
-      <c r="D21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" t="s">
-        <v>54</v>
       </c>
       <c r="G21" t="s">
         <v>11</v>
@@ -1159,19 +1162,19 @@
         <v>1021</v>
       </c>
       <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
         <v>55</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
         <v>53</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" t="s">
-        <v>54</v>
       </c>
       <c r="G22" t="s">
         <v>11</v>
@@ -1184,17 +1187,17 @@
       <c r="B23" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>57</v>
+      <c r="C23" t="s">
+        <v>55</v>
       </c>
       <c r="D23" t="s">
         <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G23" t="s">
         <v>11</v>
@@ -1205,19 +1208,19 @@
         <v>1023</v>
       </c>
       <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
         <v>59</v>
       </c>
-      <c r="C24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" t="s">
-        <v>21</v>
-      </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G24" t="s">
         <v>11</v>
@@ -1228,19 +1231,19 @@
         <v>1024</v>
       </c>
       <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" t="s">
         <v>61</v>
       </c>
-      <c r="C25" t="s">
-        <v>62</v>
-      </c>
       <c r="D25" t="s">
         <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F25" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="G25" t="s">
         <v>11</v>
@@ -1251,10 +1254,10 @@
         <v>1025</v>
       </c>
       <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" t="s">
         <v>63</v>
-      </c>
-      <c r="C26" t="s">
-        <v>62</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -1277,7 +1280,7 @@
         <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D27" t="s">
         <v>20</v>
@@ -1300,7 +1303,7 @@
         <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D28" t="s">
         <v>20</v>
@@ -1323,13 +1326,13 @@
         <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D29" t="s">
         <v>20</v>
       </c>
       <c r="E29" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
         <v>10</v>
@@ -1343,16 +1346,16 @@
         <v>1029</v>
       </c>
       <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" t="s">
         <v>68</v>
       </c>
-      <c r="C30" t="s">
-        <v>69</v>
-      </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E30" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="F30" t="s">
         <v>10</v>
@@ -1366,16 +1369,16 @@
         <v>1030</v>
       </c>
       <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
         <v>71</v>
-      </c>
-      <c r="C31" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" t="s">
-        <v>73</v>
       </c>
       <c r="F31" t="s">
         <v>10</v>
@@ -1389,16 +1392,16 @@
         <v>1031</v>
       </c>
       <c r="B32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
         <v>74</v>
-      </c>
-      <c r="C32" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" t="s">
-        <v>73</v>
       </c>
       <c r="F32" t="s">
         <v>10</v>
@@ -1415,13 +1418,13 @@
         <v>75</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -1438,13 +1441,13 @@
         <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F34" t="s">
         <v>10</v>
@@ -1461,13 +1464,13 @@
         <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D35" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="F35" t="s">
         <v>10</v>
@@ -1481,19 +1484,19 @@
         <v>1035</v>
       </c>
       <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" t="s">
         <v>79</v>
       </c>
-      <c r="C36" t="s">
-        <v>80</v>
-      </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E36" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="F36" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="G36" t="s">
         <v>11</v>
@@ -1504,19 +1507,19 @@
         <v>1036</v>
       </c>
       <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
         <v>82</v>
       </c>
-      <c r="C37" t="s">
-        <v>80</v>
-      </c>
-      <c r="D37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" t="s">
-        <v>81</v>
-      </c>
       <c r="F37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G37" t="s">
         <v>11</v>
@@ -1530,16 +1533,16 @@
         <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D38" t="s">
         <v>9</v>
       </c>
       <c r="E38" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G38" t="s">
         <v>11</v>
@@ -1550,21 +1553,44 @@
         <v>1038</v>
       </c>
       <c r="B39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
         <v>86</v>
       </c>
-      <c r="C39" t="s">
+      <c r="F39" t="s">
+        <v>53</v>
+      </c>
+      <c r="G39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>1039</v>
+      </c>
+      <c r="B40" t="s">
         <v>87</v>
       </c>
-      <c r="D39" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="1" t="s">
+      <c r="C40" t="s">
         <v>88</v>
       </c>
-      <c r="F39" t="s">
-        <v>54</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F40" t="s">
+        <v>53</v>
+      </c>
+      <c r="G40" t="s">
         <v>11</v>
       </c>
     </row>
